--- a/Rev2_F401RE/eagle/revb_BOM.xlsx
+++ b/Rev2_F401RE/eagle/revb_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/jwbuchta_wpi_edu/Documents/Projects/Interrupter/TeslaCoilController/Rev2_F401RE/eagle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{6E2CAA61-36B4-4ECB-9F70-2D9154124FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECEE4D33-6D0F-431B-88E7-CA6CE4EC011D}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{6E2CAA61-36B4-4ECB-9F70-2D9154124FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567628B2-C123-423D-B18E-1B330EF77D20}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{D47F748F-FF22-4AD5-A6FA-A0F321CBB47E}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="149">
   <si>
     <t>Qty</t>
   </si>
@@ -455,6 +455,18 @@
   </si>
   <si>
     <t>SMD-PHOTOCOUPLER-5KV-LTV-816S</t>
+  </si>
+  <si>
+    <t>R201, R203</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>R106, R107, R108, R109, R110, R111, R112, R113</t>
+  </si>
+  <si>
+    <t>Not assembled: the following, and components on bottom</t>
   </si>
 </sst>
 </file>
@@ -597,7 +609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,8 +789,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -893,6 +917,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -938,8 +973,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1333,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E12622-1509-4756-8C38-8BF3F9E042CF}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2205,6 +2243,530 @@
         <v>142</v>
       </c>
     </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>100</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>220</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4148</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="1">
+        <v>306060007</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1">
+        <v>27</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1">
+        <v>470</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Rev2_F401RE/eagle/revb_BOM.xlsx
+++ b/Rev2_F401RE/eagle/revb_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/jwbuchta_wpi_edu/Documents/Projects/Interrupter/TeslaCoilController/Rev2_F401RE/eagle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{6E2CAA61-36B4-4ECB-9F70-2D9154124FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567628B2-C123-423D-B18E-1B330EF77D20}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{6E2CAA61-36B4-4ECB-9F70-2D9154124FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88FB8E93-C572-43DF-B4A2-5D81A5B408F8}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{D47F748F-FF22-4AD5-A6FA-A0F321CBB47E}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="9984" xr2:uid="{D47F748F-FF22-4AD5-A6FA-A0F321CBB47E}"/>
   </bookViews>
   <sheets>
     <sheet name="revb_BOM" sheetId="1" r:id="rId1"/>
@@ -1373,13 +1373,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E12622-1509-4756-8C38-8BF3F9E042CF}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="13.5234375" customWidth="1"/>
+    <col min="2" max="2" width="18.68359375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.3125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7890625" customWidth="1"/>
     <col min="5" max="5" width="117.41796875" bestFit="1" customWidth="1"/>

--- a/Rev2_F401RE/eagle/revb_BOM.xlsx
+++ b/Rev2_F401RE/eagle/revb_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/jwbuchta_wpi_edu/Documents/Projects/Interrupter/TeslaCoilController/Rev2_F401RE/eagle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{6E2CAA61-36B4-4ECB-9F70-2D9154124FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88FB8E93-C572-43DF-B4A2-5D81A5B408F8}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{6E2CAA61-36B4-4ECB-9F70-2D9154124FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E2A7460-4606-4CE9-8549-2715D3933D13}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="9984" xr2:uid="{D47F748F-FF22-4AD5-A6FA-A0F321CBB47E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{D47F748F-FF22-4AD5-A6FA-A0F321CBB47E}"/>
   </bookViews>
   <sheets>
     <sheet name="revb_BOM" sheetId="1" r:id="rId1"/>
@@ -973,11 +973,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1373,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E12622-1509-4756-8C38-8BF3F9E042CF}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1412,7 +1413,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>23</v>
       </c>
       <c r="B2" t="s">
@@ -1432,7 +1433,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -1536,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
